--- a/data/meta_data.xlsx
+++ b/data/meta_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vjz3/Desktop/TrialMap/web/public/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vjz3/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1FE540-9D02-B344-94BB-82EC6658F8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47241D72-DBA0-3A43-8C68-B292099BCB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="-8540" windowWidth="21600" windowHeight="37780" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="30240" windowHeight="19640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trials" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="228">
   <si>
     <t>cancer_type</t>
   </si>
@@ -334,6 +334,9 @@
     <t>criteria_name</t>
   </si>
   <si>
+    <t>must_apply</t>
+  </si>
+  <si>
     <t>Age</t>
   </si>
   <si>
@@ -400,10 +403,10 @@
     <t>Bilirubin_v2</t>
   </si>
   <si>
-    <t>PDL1-exclude-lpilimumab</t>
-  </si>
-  <si>
-    <t>PDL1-exclude-Docetaxel</t>
+    <t>PDL1.exclude.lpilimumab</t>
+  </si>
+  <si>
+    <t>PDL1.exclude.Docetaxel</t>
   </si>
   <si>
     <t>CYP3A4</t>
@@ -418,10 +421,10 @@
     <t>Alkaline</t>
   </si>
   <si>
-    <t>EGFR-mutation</t>
-  </si>
-  <si>
-    <t>ALK-translocation</t>
+    <t>EGFR.mutation</t>
+  </si>
+  <si>
+    <t>ALK.translocation</t>
   </si>
   <si>
     <t>EGFR_ALK_therapy</t>
@@ -999,7 +1002,7 @@
   <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1093,7 +1096,6 @@
       <c r="I3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -1496,10 +1498,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z196"/>
+  <dimension ref="A1:Z212"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1511,13 +1513,16 @@
       <c r="B1" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1525,7 +1530,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1533,7 +1538,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1541,7 +1546,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1549,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1557,7 +1565,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1565,7 +1573,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1573,7 +1581,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1581,7 +1589,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1589,7 +1597,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1597,9 +1605,8 @@
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="3"/>
+        <v>104</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1629,9 +1636,8 @@
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="3"/>
+        <v>114</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1661,9 +1667,8 @@
         <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="3"/>
+        <v>106</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1693,9 +1698,8 @@
         <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="3"/>
+        <v>120</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1725,9 +1729,8 @@
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="3"/>
+        <v>121</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1757,9 +1760,11 @@
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1789,9 +1794,8 @@
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="3"/>
+        <v>122</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1821,9 +1825,8 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="3"/>
+        <v>108</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1853,9 +1856,8 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="3"/>
+        <v>109</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1885,9 +1887,8 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="3"/>
+        <v>110</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1917,9 +1918,8 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="3"/>
+        <v>123</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1949,7 +1949,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1957,7 +1957,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1965,7 +1965,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1973,7 +1973,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1981,7 +1981,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1989,7 +1989,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1997,7 +1997,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2005,7 +2005,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2013,7 +2013,7 @@
         <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2021,1244 +2021,1435 @@
         <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+      <c r="C121" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+      <c r="C122" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+      <c r="C138" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+      <c r="C148" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B158" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A159" s="4" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A159" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="B159" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C159" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A160" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B160" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A160" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B165" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A166" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B166" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A166" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+      <c r="C172" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="187" spans="1:2" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="188" spans="1:2" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="189" spans="1:2" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="190" spans="1:2" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="191" spans="1:2" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="192" spans="1:2" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="13" x14ac:dyDescent="0.15"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A186" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A187" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A188" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A189" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C189" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A190" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A191" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A192" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A193" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A194" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A195" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C195" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A196" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A197" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A198" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A199" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A200" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A201" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="203" spans="1:3" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="204" spans="1:3" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="205" spans="1:3" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="206" spans="1:3" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="207" spans="1:3" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="208" spans="1:3" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3271,7 +3462,9 @@
   </sheetPr>
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3283,516 +3476,516 @@
         <v>102</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3808,7 +4001,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="C36" activeCellId="1" sqref="H27 C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3825,42 +4018,42 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C2" s="1">
         <v>0.77</v>
@@ -3892,10 +4085,10 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C3" s="1">
         <v>0.75</v>
@@ -3927,10 +4120,10 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C4" s="1">
         <v>0.73</v>
@@ -3962,10 +4155,10 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C5" s="1">
         <v>0.71</v>
@@ -3997,10 +4190,10 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C6" s="1">
         <v>0.69</v>
@@ -4032,10 +4225,10 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C7" s="1">
         <v>0.67</v>
@@ -4067,10 +4260,10 @@
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C8" s="1">
         <v>0.65</v>
@@ -4102,10 +4295,10 @@
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C9" s="1">
         <v>0.63</v>
@@ -4137,10 +4330,10 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C10" s="1">
         <v>0.61</v>
@@ -4172,10 +4365,10 @@
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C11" s="1">
         <v>0.59</v>
@@ -4207,10 +4400,10 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C12" s="1">
         <v>0.56999999999999995</v>
@@ -4242,10 +4435,10 @@
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C13" s="1">
         <v>0.55000000000000004</v>
@@ -4277,10 +4470,10 @@
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C14" s="1">
         <v>0.53</v>
@@ -4312,10 +4505,10 @@
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C15" s="1">
         <v>0.51</v>
@@ -4347,10 +4540,10 @@
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C16" s="1">
         <v>0.49</v>

--- a/data/meta_data.xlsx
+++ b/data/meta_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vjz3/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47241D72-DBA0-3A43-8C68-B292099BCB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5D5C3D-BB7E-0645-A927-8D9094BF3EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="30240" windowHeight="19640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="227">
   <si>
     <t>cancer_type</t>
   </si>
@@ -470,9 +470,6 @@
   </si>
   <si>
     <t>pdl1_tissue</t>
-  </si>
-  <si>
-    <t>Keynote246</t>
   </si>
   <si>
     <t>Histology_ClearCell</t>
@@ -1002,7 +999,7 @@
   <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1096,7 +1093,6 @@
       <c r="I3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
@@ -1501,7 +1497,7 @@
   <dimension ref="A1:Z212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1607,7 +1603,6 @@
       <c r="B12" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1638,7 +1633,6 @@
       <c r="B13" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1669,7 +1663,6 @@
       <c r="B14" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1700,7 +1693,6 @@
       <c r="B15" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1731,7 +1723,6 @@
       <c r="B16" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1765,7 +1756,6 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1796,7 +1786,6 @@
       <c r="B18" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1827,7 +1816,6 @@
       <c r="B19" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1858,7 +1846,6 @@
       <c r="B20" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1889,7 +1876,6 @@
       <c r="B21" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1920,7 +1906,6 @@
       <c r="B22" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -3077,15 +3062,15 @@
     </row>
     <row r="158" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B158" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="4" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>107</v>
@@ -3096,7 +3081,7 @@
     </row>
     <row r="160" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="4" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>106</v>
@@ -3104,7 +3089,7 @@
     </row>
     <row r="161" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="4" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>104</v>
@@ -3112,7 +3097,7 @@
     </row>
     <row r="162" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="4" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>108</v>
@@ -3120,7 +3105,7 @@
     </row>
     <row r="163" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="4" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>109</v>
@@ -3128,7 +3113,7 @@
     </row>
     <row r="164" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="4" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>110</v>
@@ -3136,7 +3121,7 @@
     </row>
     <row r="165" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="4" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>112</v>
@@ -3144,7 +3129,7 @@
     </row>
     <row r="166" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="4" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>111</v>
@@ -3152,7 +3137,7 @@
     </row>
     <row r="167" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="4" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>113</v>
@@ -3160,7 +3145,7 @@
     </row>
     <row r="168" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="4" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>119</v>
@@ -3168,15 +3153,15 @@
     </row>
     <row r="169" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="4" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="4" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>140</v>
@@ -3184,7 +3169,7 @@
     </row>
     <row r="171" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="4" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>128</v>
@@ -3286,7 +3271,7 @@
         <v>89</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="13" x14ac:dyDescent="0.15">
@@ -3462,9 +3447,7 @@
   </sheetPr>
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3476,10 +3459,10 @@
         <v>102</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3487,10 +3470,10 @@
         <v>104</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3498,10 +3481,10 @@
         <v>105</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3509,10 +3492,10 @@
         <v>106</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3520,10 +3503,10 @@
         <v>107</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3531,10 +3514,10 @@
         <v>108</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3542,10 +3525,10 @@
         <v>109</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3553,10 +3536,10 @@
         <v>110</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3564,10 +3547,10 @@
         <v>111</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3575,10 +3558,10 @@
         <v>112</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3586,10 +3569,10 @@
         <v>113</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3597,10 +3580,10 @@
         <v>114</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3608,10 +3591,10 @@
         <v>115</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3619,10 +3602,10 @@
         <v>116</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3630,10 +3613,10 @@
         <v>117</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3641,10 +3624,10 @@
         <v>118</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3652,10 +3635,10 @@
         <v>119</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3663,10 +3646,10 @@
         <v>120</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3674,10 +3657,10 @@
         <v>121</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3685,10 +3668,10 @@
         <v>122</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3696,10 +3679,10 @@
         <v>123</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3707,10 +3690,10 @@
         <v>124</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3718,10 +3701,10 @@
         <v>125</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3729,10 +3712,10 @@
         <v>126</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3740,10 +3723,10 @@
         <v>127</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3751,10 +3734,10 @@
         <v>128</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3762,10 +3745,10 @@
         <v>129</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3773,10 +3756,10 @@
         <v>130</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3784,10 +3767,10 @@
         <v>131</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3795,10 +3778,10 @@
         <v>132</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3806,10 +3789,10 @@
         <v>133</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3817,10 +3800,10 @@
         <v>134</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3828,10 +3811,10 @@
         <v>135</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3839,10 +3822,10 @@
         <v>136</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3850,10 +3833,10 @@
         <v>137</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3861,10 +3844,10 @@
         <v>138</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3872,10 +3855,10 @@
         <v>139</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3883,10 +3866,10 @@
         <v>140</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3894,10 +3877,10 @@
         <v>141</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3905,10 +3888,10 @@
         <v>142</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3916,10 +3899,10 @@
         <v>143</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3927,10 +3910,10 @@
         <v>145</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3938,10 +3921,10 @@
         <v>146</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3949,10 +3932,10 @@
         <v>147</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3960,32 +3943,32 @@
         <v>148</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4001,7 +3984,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" activeCellId="1" sqref="H27 C36"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4018,42 +4001,42 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C2" s="1">
         <v>0.77</v>
@@ -4085,10 +4068,10 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="C3" s="1">
         <v>0.75</v>
@@ -4120,10 +4103,10 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C4" s="1">
         <v>0.73</v>
@@ -4155,10 +4138,10 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C5" s="1">
         <v>0.71</v>
@@ -4190,10 +4173,10 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C6" s="1">
         <v>0.69</v>
@@ -4225,10 +4208,10 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C7" s="1">
         <v>0.67</v>
@@ -4260,10 +4243,10 @@
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C8" s="1">
         <v>0.65</v>
@@ -4295,10 +4278,10 @@
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C9" s="1">
         <v>0.63</v>
@@ -4330,10 +4313,10 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C10" s="1">
         <v>0.61</v>
@@ -4365,10 +4348,10 @@
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C11" s="1">
         <v>0.59</v>
@@ -4400,10 +4383,10 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C12" s="1">
         <v>0.56999999999999995</v>
@@ -4435,10 +4418,10 @@
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C13" s="1">
         <v>0.55000000000000004</v>
@@ -4470,10 +4453,10 @@
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C14" s="1">
         <v>0.53</v>
@@ -4505,10 +4488,10 @@
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C15" s="1">
         <v>0.51</v>
@@ -4540,10 +4523,10 @@
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C16" s="1">
         <v>0.49</v>

--- a/data/meta_data.xlsx
+++ b/data/meta_data.xlsx
@@ -1,29 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vjz3/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5D5C3D-BB7E-0645-A927-8D9094BF3EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="30240" windowHeight="19640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="trials" sheetId="1" r:id="rId1"/>
-    <sheet name="trial_criteria" sheetId="2" r:id="rId2"/>
-    <sheet name="criteria" sheetId="3" r:id="rId3"/>
-    <sheet name="FLAURA_results" sheetId="4" r:id="rId4"/>
+    <sheet state="visible" name="trials" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="trial_criteria" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="criteria" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="FLAURA_results" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="metrics" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="243">
   <si>
     <t>cancer_type</t>
   </si>
@@ -52,7 +44,7 @@
     <t>control_alt</t>
   </si>
   <si>
-    <t>advanced non-small cell lung cancer (aNSCLC)</t>
+    <t>advanced Non-Small Cell Lung Cancer (aNSCLC)</t>
   </si>
   <si>
     <t>FLAURA</t>
@@ -79,18 +71,18 @@
     <t>Erlotinib', 'Gefitinib', 'Erlotinib,Gefitinib'</t>
   </si>
   <si>
+    <t>Checkmate017</t>
+  </si>
+  <si>
+    <t>An Open-Label Randomized Phase III Trial of BMS-936558 (Nivolumab) Versus Docetaxel in Previously Treated Advanced or Metastatic Squamous Cell Non-small Cell Lung Cancer (NSCLC)</t>
+  </si>
+  <si>
+    <t>NCT01642004</t>
+  </si>
+  <si>
     <t>2L</t>
   </si>
   <si>
-    <t>Checkmate017</t>
-  </si>
-  <si>
-    <t>An Open-Label Randomized Phase III Trial of BMS-936558 (Nivolumab) Versus Docetaxel in Previously Treated Advanced or Metastatic Squamous Cell Non-small Cell Lung Cancer (NSCLC)</t>
-  </si>
-  <si>
-    <t>NCT01642004</t>
-  </si>
-  <si>
     <t>nibolumab</t>
   </si>
   <si>
@@ -214,7 +206,7 @@
     <t>Atezolizumab'</t>
   </si>
   <si>
-    <t>advanced melanoma (aMel)</t>
+    <t>advanced Melanoma (aMel)</t>
   </si>
   <si>
     <t>Checkmate067</t>
@@ -268,7 +260,7 @@
     <t>Vemurafenib'</t>
   </si>
   <si>
-    <t>metastatic renal cell carcinoma (mRCC)</t>
+    <t>metastatic Renal Cell Carcinoma (mRCC)</t>
   </si>
   <si>
     <t>Keynote426</t>
@@ -307,7 +299,7 @@
     <t>Ipilimumab,Nivolumab'</t>
   </si>
   <si>
-    <t>advanced head and neck cancer (aHNC)</t>
+    <t>advanced Head and Neck Cancer (aHNC)</t>
   </si>
   <si>
     <t>Keynote048</t>
@@ -370,114 +362,114 @@
     <t>Histology_Squamous</t>
   </si>
   <si>
+    <t>FirstProgression</t>
+  </si>
+  <si>
+    <t>maintenance</t>
+  </si>
+  <si>
+    <t>WBC</t>
+  </si>
+  <si>
+    <t>AST_v2</t>
+  </si>
+  <si>
+    <t>ALT_v2</t>
+  </si>
+  <si>
+    <t>Bilirubin_v2</t>
+  </si>
+  <si>
+    <t>CNS_Metastasis</t>
+  </si>
+  <si>
+    <t>PDL1.exclude.lpilimumab</t>
+  </si>
+  <si>
+    <t>PDL1.exclude.Docetaxel</t>
+  </si>
+  <si>
+    <t>CYP3A4</t>
+  </si>
+  <si>
+    <t>maintenance_v2</t>
+  </si>
+  <si>
+    <t>ALK_drug</t>
+  </si>
+  <si>
+    <t>EGFR_drug</t>
+  </si>
+  <si>
+    <t>Alkaline</t>
+  </si>
+  <si>
+    <t>EGFR.mutation</t>
+  </si>
+  <si>
+    <t>ALK.translocation</t>
+  </si>
+  <si>
+    <t>EGFR_ALK_therapy</t>
+  </si>
+  <si>
+    <t>EGFR_ALK_positive</t>
+  </si>
+  <si>
+    <t>neoadjuvant_treatment</t>
+  </si>
+  <si>
+    <t>prior_treatment</t>
+  </si>
+  <si>
+    <t>ECOG_v1</t>
+  </si>
+  <si>
+    <t>blood_pressure_diastolic</t>
+  </si>
+  <si>
+    <t>blood_pressure_systolic</t>
+  </si>
+  <si>
+    <t>Histology_Any</t>
+  </si>
+  <si>
+    <t>WBC_v2</t>
+  </si>
+  <si>
+    <t>Lymphocyte</t>
+  </si>
+  <si>
+    <t>Albumin</t>
+  </si>
+  <si>
+    <t>BRAF_mutation</t>
+  </si>
+  <si>
     <t>Platelets_v1</t>
   </si>
   <si>
+    <t>Brain_Metastasis</t>
+  </si>
+  <si>
+    <t>hpv_test</t>
+  </si>
+  <si>
+    <t>pdl1_tissue</t>
+  </si>
+  <si>
+    <t>Histology_ClearCell</t>
+  </si>
+  <si>
+    <t>blood_pressure_diastolic_v2</t>
+  </si>
+  <si>
+    <t>AST_v3</t>
+  </si>
+  <si>
     <t>ALT_v3</t>
   </si>
   <si>
-    <t>AST_v3</t>
-  </si>
-  <si>
-    <t>EGFR_drug</t>
-  </si>
-  <si>
-    <t>CNS_Metastasis</t>
-  </si>
-  <si>
-    <t>FirstProgression</t>
-  </si>
-  <si>
-    <t>maintenance</t>
-  </si>
-  <si>
-    <t>WBC</t>
-  </si>
-  <si>
-    <t>AST_v2</t>
-  </si>
-  <si>
-    <t>ALT_v2</t>
-  </si>
-  <si>
-    <t>Bilirubin_v2</t>
-  </si>
-  <si>
-    <t>PDL1.exclude.lpilimumab</t>
-  </si>
-  <si>
-    <t>PDL1.exclude.Docetaxel</t>
-  </si>
-  <si>
-    <t>CYP3A4</t>
-  </si>
-  <si>
-    <t>maintenance_v2</t>
-  </si>
-  <si>
-    <t>ALK_drug</t>
-  </si>
-  <si>
-    <t>Alkaline</t>
-  </si>
-  <si>
-    <t>EGFR.mutation</t>
-  </si>
-  <si>
-    <t>ALK.translocation</t>
-  </si>
-  <si>
-    <t>EGFR_ALK_therapy</t>
-  </si>
-  <si>
-    <t>EGFR_ALK_positive</t>
-  </si>
-  <si>
-    <t>neoadjuvant_treatment</t>
-  </si>
-  <si>
-    <t>prior_treatment</t>
-  </si>
-  <si>
-    <t>ECOG_v1</t>
-  </si>
-  <si>
-    <t>blood_pressure_diastolic</t>
-  </si>
-  <si>
-    <t>blood_pressure_systolic</t>
-  </si>
-  <si>
-    <t>Histology_Any</t>
-  </si>
-  <si>
-    <t>WBC_v2</t>
-  </si>
-  <si>
-    <t>Lymphocyte</t>
-  </si>
-  <si>
-    <t>Albumin</t>
-  </si>
-  <si>
-    <t>BRAF_mutation</t>
-  </si>
-  <si>
-    <t>Brain_Metastasis</t>
-  </si>
-  <si>
-    <t>hpv_test</t>
-  </si>
-  <si>
-    <t>pdl1_tissue</t>
-  </si>
-  <si>
-    <t>Histology_ClearCell</t>
-  </si>
-  <si>
-    <t>blood_pressure_diastolic_v2</t>
-  </si>
-  <si>
     <t>criteria_description</t>
   </si>
   <si>
@@ -496,7 +488,7 @@
     <t>Staging consistent with locally advanced or metastatic disease</t>
   </si>
   <si>
-    <t>Eastern Cooperative oncology Group (ECOG) with a value of 0 or 1</t>
+    <t>ECOG with a value of 0 or 1</t>
   </si>
   <si>
     <t>Absolute neutrophil count ≥1.5 x 10^9/L</t>
@@ -505,16 +497,16 @@
     <t>Platelet count ≥100 x 10^9/L</t>
   </si>
   <si>
-    <t>Haemoglobin ≥9 g/dL</t>
-  </si>
-  <si>
-    <t>Alanine aminotransferase (ALT) ≤2.5x the upper limit of normal (ULN)</t>
-  </si>
-  <si>
-    <t>Aspartate aminotransferase (AST) ≤2.5xULN</t>
-  </si>
-  <si>
-    <t>Total bilirubin ≤1.5xULN</t>
+    <t>Hemoglobin ≥9 g/dL</t>
+  </si>
+  <si>
+    <t>ALT ≤2.5 x ULN</t>
+  </si>
+  <si>
+    <t>Aspartate aminotransferase (AST) ≤2.5 x ULN</t>
+  </si>
+  <si>
+    <t>Total bilirubin ≤1.5 x ULN</t>
   </si>
   <si>
     <t>Squamous histology</t>
@@ -523,10 +515,10 @@
     <t>Platelet count ≥75 x 10^9/L</t>
   </si>
   <si>
-    <t>Alanine aminotransferase (ALT) ≤3x the upper limit of normal (ULN)</t>
-  </si>
-  <si>
-    <t>Aspartate aminotransferase (AST) ≤3xULN</t>
+    <t>ALT ≤3 x ULN</t>
+  </si>
+  <si>
+    <t>AST ≤3 x ULN</t>
   </si>
   <si>
     <t>EGFR gene with mutation positive and prior treatment with an EGFR TKI</t>
@@ -547,13 +539,13 @@
     <t>White blood cell (WBC) count ≥2/L</t>
   </si>
   <si>
-    <t>Aspartate aminotransferase (AST) ≤1.5xULN</t>
-  </si>
-  <si>
-    <t>Alanine aminotransferase (ALT) ≤1.5x the upper limit of normal (ULN)</t>
-  </si>
-  <si>
-    <t>Total bilirubin ≤1xULN</t>
+    <t>AST ≤1.5 x ULN</t>
+  </si>
+  <si>
+    <t>ALT ≤1.5 x ULN</t>
+  </si>
+  <si>
+    <t>Total bilirubin ≤1 x ULN</t>
   </si>
   <si>
     <t>Prior therapy with anti-PDL1 antibody (ipilimumab)</t>
@@ -592,7 +584,7 @@
     <t>Have received prior antineoplastic biological therapy</t>
   </si>
   <si>
-    <t>Eastern Cooperative oncology Group (ECOG) with a value of 0</t>
+    <t>ECOG with a value of 0</t>
   </si>
   <si>
     <t>Diastolic blood pressure &gt; 100 mmHg</t>
@@ -704,38 +696,75 @@
   </si>
   <si>
     <t>AGE_GT_18,MS_NSCLC,WHOPS_01,PT_EGFR</t>
+  </si>
+  <si>
+    <t>metrics</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>Paths</t>
+  </si>
+  <si>
+    <t>Combinations of eligibility criteria</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Treatment efficacy (hazard ratio)</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>Safety (adverse event rate)</t>
+  </si>
+  <si>
+    <t># of Patients</t>
+  </si>
+  <si>
+    <t>Feasibility (number of eligible patients in EHR data)</t>
+  </si>
+  <si>
+    <t>EASE</t>
+  </si>
+  <si>
+    <t>Validity (systemetic error measured by EASE score)</t>
+  </si>
+  <si>
+    <t>G-index</t>
+  </si>
+  <si>
+    <t>Generalizability (distance from the overall population)</t>
+  </si>
+  <si>
+    <t>selogHR</t>
+  </si>
+  <si>
+    <t>Efficiency (standard error of logHR)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="3">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFB7B7B7"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -743,7 +772,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -759,44 +788,66 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+  <cellXfs count="8">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -986,28 +1037,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="39.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +1082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1065,21 +1111,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>22</v>
@@ -1093,19 +1139,8 @@
       <c r="I3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1119,7 +1154,7 @@
         <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>22</v>
@@ -1134,7 +1169,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1148,7 +1183,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>22</v>
@@ -1163,7 +1198,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1177,7 +1212,7 @@
         <v>34</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>35</v>
@@ -1192,7 +1227,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1221,7 +1256,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1250,7 +1285,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1279,7 +1314,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1293,7 +1328,7 @@
         <v>60</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>61</v>
@@ -1308,201 +1343,198 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11">
       <c r="A11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12">
       <c r="A12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13">
       <c r="A13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
+    <row r="14">
+      <c r="A14" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
+    <row r="15">
+      <c r="A15" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="3" t="s">
         <v>88</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="A16" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="3" t="s">
         <v>101</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z212"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1513,7 +1545,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1521,7 +1553,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1529,7 +1561,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1537,7 +1569,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1545,10 +1577,10 @@
         <v>107</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1556,7 +1588,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1564,7 +1596,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1572,7 +1604,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1580,7 +1612,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1588,7 +1620,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1596,388 +1628,146 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-    </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-    </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-    </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-    </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-    </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="1" t="s">
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,7 +1775,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
@@ -1993,7 +1783,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31">
       <c r="A31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2001,7 +1791,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32">
       <c r="A32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2009,56 +1799,56 @@
         <v>107</v>
       </c>
       <c r="C32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="1" t="s">
         <v>26</v>
       </c>
@@ -2066,7 +1856,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39">
       <c r="A39" s="1" t="s">
         <v>26</v>
       </c>
@@ -2074,7 +1864,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40">
       <c r="A40" s="1" t="s">
         <v>26</v>
       </c>
@@ -2082,63 +1872,63 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41">
       <c r="A41" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="1" t="s">
         <v>29</v>
       </c>
@@ -2146,10 +1936,10 @@
         <v>107</v>
       </c>
       <c r="C48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="1" t="s">
         <v>29</v>
       </c>
@@ -2157,31 +1947,31 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50">
       <c r="A50" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="1" t="s">
         <v>29</v>
       </c>
@@ -2189,7 +1979,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54">
       <c r="A54" s="1" t="s">
         <v>29</v>
       </c>
@@ -2197,7 +1987,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55">
       <c r="A55" s="1" t="s">
         <v>29</v>
       </c>
@@ -2205,39 +1995,39 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56">
       <c r="A56" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="A59" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="1" t="s">
         <v>29</v>
       </c>
@@ -2245,53 +2035,53 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="61">
       <c r="A61" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="A62" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C62" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="A63" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C63" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="A64" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="A65" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="A66" s="1" t="s">
         <v>32</v>
       </c>
@@ -2299,7 +2089,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="67">
       <c r="A67" s="1" t="s">
         <v>32</v>
       </c>
@@ -2307,10 +2097,10 @@
         <v>107</v>
       </c>
       <c r="C67" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="A68" s="1" t="s">
         <v>32</v>
       </c>
@@ -2318,7 +2108,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="69">
       <c r="A69" s="1" t="s">
         <v>32</v>
       </c>
@@ -2326,7 +2116,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="70">
       <c r="A70" s="1" t="s">
         <v>32</v>
       </c>
@@ -2334,93 +2124,93 @@
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="71">
       <c r="A71" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="A72" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="A73" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="A74" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="A75" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="A76" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="A77" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78">
       <c r="A78" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="A79" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C79" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="A80" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C80" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="A81" s="1" t="s">
         <v>37</v>
       </c>
@@ -2428,7 +2218,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="82">
       <c r="A82" s="1" t="s">
         <v>37</v>
       </c>
@@ -2436,7 +2226,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="83">
       <c r="A83" s="1" t="s">
         <v>37</v>
       </c>
@@ -2444,15 +2234,15 @@
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="84">
       <c r="A84" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="A85" s="1" t="s">
         <v>37</v>
       </c>
@@ -2460,10 +2250,10 @@
         <v>107</v>
       </c>
       <c r="C85" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="A86" s="1" t="s">
         <v>37</v>
       </c>
@@ -2471,7 +2261,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="87">
       <c r="A87" s="1" t="s">
         <v>37</v>
       </c>
@@ -2479,7 +2269,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="88">
       <c r="A88" s="1" t="s">
         <v>37</v>
       </c>
@@ -2487,7 +2277,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="89">
       <c r="A89" s="1" t="s">
         <v>37</v>
       </c>
@@ -2495,7 +2285,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="90">
       <c r="A90" s="1" t="s">
         <v>37</v>
       </c>
@@ -2503,23 +2293,23 @@
         <v>112</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="91">
       <c r="A91" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="A92" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="A93" s="1" t="s">
         <v>44</v>
       </c>
@@ -2527,7 +2317,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="94">
       <c r="A94" s="1" t="s">
         <v>44</v>
       </c>
@@ -2535,15 +2325,15 @@
         <v>106</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="95">
       <c r="A95" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="A96" s="1" t="s">
         <v>44</v>
       </c>
@@ -2551,7 +2341,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="97">
       <c r="A97" s="1" t="s">
         <v>44</v>
       </c>
@@ -2559,10 +2349,10 @@
         <v>107</v>
       </c>
       <c r="C97" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="98">
       <c r="A98" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,7 +2360,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="99">
       <c r="A99" s="1" t="s">
         <v>44</v>
       </c>
@@ -2578,7 +2368,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="100">
       <c r="A100" s="1" t="s">
         <v>44</v>
       </c>
@@ -2586,7 +2376,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="101">
       <c r="A101" s="1" t="s">
         <v>44</v>
       </c>
@@ -2594,7 +2384,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="102">
       <c r="A102" s="1" t="s">
         <v>44</v>
       </c>
@@ -2602,23 +2392,23 @@
         <v>112</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="103">
       <c r="A103" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="104">
       <c r="A104" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="105">
       <c r="A105" s="1" t="s">
         <v>51</v>
       </c>
@@ -2626,7 +2416,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="106">
       <c r="A106" s="1" t="s">
         <v>51</v>
       </c>
@@ -2634,7 +2424,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="107">
       <c r="A107" s="1" t="s">
         <v>51</v>
       </c>
@@ -2642,18 +2432,18 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="108">
       <c r="A108" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C108" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="109">
       <c r="A109" s="1" t="s">
         <v>51</v>
       </c>
@@ -2661,7 +2451,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="110">
       <c r="A110" s="1" t="s">
         <v>51</v>
       </c>
@@ -2669,7 +2459,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="111">
       <c r="A111" s="1" t="s">
         <v>51</v>
       </c>
@@ -2677,7 +2467,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="112">
       <c r="A112" s="1" t="s">
         <v>51</v>
       </c>
@@ -2685,7 +2475,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="113">
       <c r="A113" s="1" t="s">
         <v>51</v>
       </c>
@@ -2693,31 +2483,31 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="114">
       <c r="A114" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="115">
       <c r="A115" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="116">
       <c r="A116" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="117">
       <c r="A117" s="1" t="s">
         <v>58</v>
       </c>
@@ -2725,15 +2515,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="118">
       <c r="A118" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="119">
       <c r="A119" s="1" t="s">
         <v>58</v>
       </c>
@@ -2741,29 +2531,29 @@
         <v>106</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="120">
       <c r="A120" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C120" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="121">
       <c r="A121" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C121" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="122">
       <c r="A122" s="1" t="s">
         <v>58</v>
       </c>
@@ -2771,34 +2561,34 @@
         <v>107</v>
       </c>
       <c r="C122" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="123">
       <c r="A123" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="124">
       <c r="A124" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="125">
       <c r="A125" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="126">
       <c r="A126" s="1" t="s">
         <v>58</v>
       </c>
@@ -2806,7 +2596,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="127">
       <c r="A127" s="1" t="s">
         <v>58</v>
       </c>
@@ -2814,647 +2604,635 @@
         <v>110</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="128">
       <c r="A128" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="129">
       <c r="A129" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="130">
       <c r="A130" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="131">
       <c r="A131" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="132">
       <c r="A132" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="133">
       <c r="A133" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="134">
       <c r="A134" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A135" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B135" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A136" s="4" t="s">
+    <row r="136">
+      <c r="A136" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B136" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A137" s="4" t="s">
+    <row r="137">
+      <c r="A137" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B137" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C138" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C148" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B155" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A138" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B138" s="4" t="s">
+    <row r="156">
+      <c r="A156" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B159" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C138" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A139" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B139" s="4" t="s">
+      <c r="C159" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C172" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C189" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B190" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A140" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A141" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B141" s="4" t="s">
+    <row r="191">
+      <c r="A191" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C195" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B198" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A142" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B142" s="4" t="s">
+    <row r="199">
+      <c r="A199" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B199" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A143" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B143" s="4" t="s">
+    <row r="200">
+      <c r="A200" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B200" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A144" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A145" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A146" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A147" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A148" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C148" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A149" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A150" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A151" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A152" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A153" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A154" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A155" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A156" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A157" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A158" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A159" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C159" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A160" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A161" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A162" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A163" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A164" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A165" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A166" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A167" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A168" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A169" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A170" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A171" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A172" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C172" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A173" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A174" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A175" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A176" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A177" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A178" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A179" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A180" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A181" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A182" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A183" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A184" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A185" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A186" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A187" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A188" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A189" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C189" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A190" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A191" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B191" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A192" s="4" t="s">
+    <row r="201">
+      <c r="A201" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B192" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A193" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B193" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A194" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A195" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B195" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C195" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A196" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A197" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A198" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A199" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A200" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A201" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="203" spans="1:3" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="204" spans="1:3" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="205" spans="1:3" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="206" spans="1:3" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="207" spans="1:3" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="208" spans="1:3" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="13" x14ac:dyDescent="0.15"/>
+      <c r="B201" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="48" customWidth="1"/>
+    <col customWidth="1" min="2" max="2" width="48.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
@@ -3465,7 +3243,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>104</v>
       </c>
@@ -3476,7 +3254,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>105</v>
       </c>
@@ -3487,7 +3265,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4">
       <c r="A4" s="1" t="s">
         <v>106</v>
       </c>
@@ -3498,7 +3276,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5">
       <c r="A5" s="1" t="s">
         <v>107</v>
       </c>
@@ -3509,7 +3287,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6">
       <c r="A6" s="1" t="s">
         <v>108</v>
       </c>
@@ -3520,7 +3298,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7">
       <c r="A7" s="1" t="s">
         <v>109</v>
       </c>
@@ -3531,7 +3309,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8">
       <c r="A8" s="1" t="s">
         <v>110</v>
       </c>
@@ -3542,7 +3320,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9">
       <c r="A9" s="1" t="s">
         <v>111</v>
       </c>
@@ -3553,7 +3331,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10">
       <c r="A10" s="1" t="s">
         <v>112</v>
       </c>
@@ -3564,7 +3342,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11">
       <c r="A11" s="1" t="s">
         <v>113</v>
       </c>
@@ -3575,7 +3353,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12">
       <c r="A12" s="1" t="s">
         <v>114</v>
       </c>
@@ -3586,9 +3364,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13">
       <c r="A13" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>165</v>
@@ -3597,9 +3375,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14">
       <c r="A14" s="1" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>166</v>
@@ -3608,9 +3386,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15">
       <c r="A15" s="1" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>167</v>
@@ -3619,9 +3397,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="A16" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>168</v>
@@ -3630,9 +3408,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17">
       <c r="A17" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>170</v>
@@ -3641,9 +3419,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18">
       <c r="A18" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>171</v>
@@ -3652,9 +3430,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>172</v>
@@ -3663,9 +3441,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>173</v>
@@ -3674,9 +3452,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21">
       <c r="A21" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>174</v>
@@ -3685,9 +3463,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>175</v>
@@ -3696,9 +3474,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23">
       <c r="A23" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>176</v>
@@ -3707,9 +3485,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24">
       <c r="A24" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>177</v>
@@ -3718,9 +3496,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25">
       <c r="A25" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>178</v>
@@ -3729,9 +3507,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26">
       <c r="A26" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>179</v>
@@ -3740,9 +3518,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27">
       <c r="A27" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>180</v>
@@ -3751,9 +3529,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28">
       <c r="A28" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>181</v>
@@ -3762,9 +3540,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29">
       <c r="A29" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>182</v>
@@ -3773,9 +3551,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30">
       <c r="A30" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>183</v>
@@ -3784,9 +3562,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31">
       <c r="A31" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>184</v>
@@ -3795,9 +3573,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32">
       <c r="A32" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>185</v>
@@ -3806,9 +3584,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33">
       <c r="A33" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>186</v>
@@ -3817,9 +3595,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34">
       <c r="A34" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>187</v>
@@ -3828,9 +3606,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35">
       <c r="A35" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>188</v>
@@ -3839,9 +3617,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36">
       <c r="A36" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>189</v>
@@ -3850,9 +3628,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37">
       <c r="A37" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>190</v>
@@ -3861,9 +3639,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38">
       <c r="A38" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>191</v>
@@ -3872,9 +3650,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39">
       <c r="A39" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>192</v>
@@ -3883,9 +3661,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40">
       <c r="A40" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>193</v>
@@ -3894,9 +3672,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41">
       <c r="A41" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>194</v>
@@ -3905,117 +3683,114 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="4" t="s">
+    <row r="42">
+      <c r="A42" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C42" s="4" t="s">
+      <c r="B44" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="4" t="s">
+    <row r="45">
+      <c r="A45" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C43" s="4" t="s">
+      <c r="B45" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="4" t="s">
+    <row r="47">
+      <c r="A47" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C44" s="4" t="s">
+      <c r="B47" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="38.1640625" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" customWidth="1"/>
-    <col min="10" max="10" width="8.1640625" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
+    <col customWidth="1" min="2" max="2" width="38.25"/>
+    <col customWidth="1" min="3" max="3" width="8.75"/>
+    <col customWidth="1" min="5" max="5" width="8.75"/>
+    <col customWidth="1" min="7" max="7" width="7.13"/>
+    <col customWidth="1" min="8" max="8" width="16.13"/>
+    <col customWidth="1" min="9" max="9" width="6.75"/>
+    <col customWidth="1" min="10" max="10" width="8.13"/>
+    <col customWidth="1" min="11" max="11" width="8.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>206</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -4034,7 +3809,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>212</v>
       </c>
@@ -4048,13 +3823,13 @@
         <v>0.75</v>
       </c>
       <c r="F2" s="1">
-        <v>0.56849000000000005</v>
+        <v>0.56849</v>
       </c>
       <c r="G2" s="1">
         <v>0.18</v>
       </c>
       <c r="H2" s="1">
-        <v>4902</v>
+        <v>4902.0</v>
       </c>
       <c r="I2" s="1">
         <v>0.1</v>
@@ -4066,7 +3841,7 @@
         <v>0.8821</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>212</v>
       </c>
@@ -4083,13 +3858,13 @@
         <v>0.73</v>
       </c>
       <c r="F3" s="1">
-        <v>0.54900000000000004</v>
+        <v>0.549</v>
       </c>
       <c r="G3" s="1">
         <v>0.12</v>
       </c>
       <c r="H3" s="1">
-        <v>3329</v>
+        <v>3329.0</v>
       </c>
       <c r="I3" s="1">
         <v>0.12</v>
@@ -4098,10 +3873,10 @@
         <v>0.85</v>
       </c>
       <c r="K3" s="1">
-        <v>0.86819999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.8682</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="1" t="s">
         <v>212</v>
       </c>
@@ -4118,25 +3893,25 @@
         <v>0.71</v>
       </c>
       <c r="F4" s="1">
-        <v>0.52951000000000004</v>
+        <v>0.52951</v>
       </c>
       <c r="G4" s="1">
         <v>0.15</v>
       </c>
       <c r="H4" s="1">
-        <v>1756</v>
+        <v>1756.0</v>
       </c>
       <c r="I4" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="J4" s="1">
         <v>0.78</v>
       </c>
       <c r="K4" s="1">
-        <v>0.85429999999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.8543</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="1" t="s">
         <v>212</v>
       </c>
@@ -4153,13 +3928,13 @@
         <v>0.69</v>
       </c>
       <c r="F5" s="1">
-        <v>0.51002000000000003</v>
+        <v>0.51002</v>
       </c>
       <c r="G5" s="1">
         <v>0.12</v>
       </c>
       <c r="H5" s="1">
-        <v>1742</v>
+        <v>1742.0</v>
       </c>
       <c r="I5" s="1">
         <v>0.16</v>
@@ -4168,10 +3943,10 @@
         <v>0.71</v>
       </c>
       <c r="K5" s="1">
-        <v>0.84040000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.8404</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="1" t="s">
         <v>212</v>
       </c>
@@ -4188,13 +3963,13 @@
         <v>0.67</v>
       </c>
       <c r="F6" s="1">
-        <v>0.49053000000000002</v>
+        <v>0.49053</v>
       </c>
       <c r="G6" s="1">
         <v>0.105</v>
       </c>
       <c r="H6" s="1">
-        <v>1728</v>
+        <v>1728.0</v>
       </c>
       <c r="I6" s="1">
         <v>0.18</v>
@@ -4203,10 +3978,10 @@
         <v>0.64</v>
       </c>
       <c r="K6" s="1">
-        <v>0.82650000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.8265</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="1" t="s">
         <v>212</v>
       </c>
@@ -4223,25 +3998,25 @@
         <v>0.65</v>
       </c>
       <c r="F7" s="1">
-        <v>0.47104000000000001</v>
+        <v>0.47104</v>
       </c>
       <c r="G7" s="1">
         <v>0.09</v>
       </c>
       <c r="H7" s="1">
-        <v>1714</v>
+        <v>1714.0</v>
       </c>
       <c r="I7" s="1">
         <v>0.2</v>
       </c>
       <c r="J7" s="1">
-        <v>0.56999999999999995</v>
+        <v>0.57</v>
       </c>
       <c r="K7" s="1">
-        <v>0.81259999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.8126</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="1" t="s">
         <v>212</v>
       </c>
@@ -4252,19 +4027,19 @@
         <v>0.65</v>
       </c>
       <c r="D8" s="1">
-        <v>9.6000000000000002E-2</v>
+        <v>0.096</v>
       </c>
       <c r="E8" s="1">
         <v>0.63</v>
       </c>
       <c r="F8" s="1">
-        <v>0.45155000000000001</v>
+        <v>0.45155</v>
       </c>
       <c r="G8" s="1">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="H8" s="1">
-        <v>1700</v>
+        <v>1700.0</v>
       </c>
       <c r="I8" s="1">
         <v>0.22</v>
@@ -4273,10 +4048,10 @@
         <v>0.499999999999999</v>
       </c>
       <c r="K8" s="1">
-        <v>0.79869999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.7987</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="1" t="s">
         <v>212</v>
       </c>
@@ -4287,31 +4062,31 @@
         <v>0.63</v>
       </c>
       <c r="D9" s="1">
-        <v>8.4000000000000005E-2</v>
+        <v>0.084</v>
       </c>
       <c r="E9" s="1">
         <v>0.61</v>
       </c>
       <c r="F9" s="1">
-        <v>0.52951000000000004</v>
+        <v>0.52951</v>
       </c>
       <c r="G9" s="1">
         <v>0.06</v>
       </c>
       <c r="H9" s="1">
-        <v>1686</v>
+        <v>1686.0</v>
       </c>
       <c r="I9" s="1">
         <v>0.24</v>
       </c>
       <c r="J9" s="1">
-        <v>0.42999999999999899</v>
+        <v>0.429999999999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0.78480000000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.7848</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="1" t="s">
         <v>212</v>
       </c>
@@ -4322,31 +4097,31 @@
         <v>0.61</v>
       </c>
       <c r="D10" s="1">
-        <v>7.1999999999999995E-2</v>
+        <v>0.072</v>
       </c>
       <c r="E10" s="1">
         <v>0.59</v>
       </c>
       <c r="F10" s="1">
-        <v>0.60746999999999995</v>
+        <v>0.60747</v>
       </c>
       <c r="G10" s="1">
-        <v>4.4999999999999998E-2</v>
+        <v>0.045</v>
       </c>
       <c r="H10" s="1">
-        <v>1672</v>
+        <v>1672.0</v>
       </c>
       <c r="I10" s="1">
         <v>0.26</v>
       </c>
       <c r="J10" s="1">
-        <v>0.35999999999999899</v>
+        <v>0.359999999999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0.77090000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.7709</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="1" t="s">
         <v>212</v>
       </c>
@@ -4360,28 +4135,28 @@
         <v>0.06</v>
       </c>
       <c r="E11" s="1">
-        <v>0.56999999999999995</v>
+        <v>0.57</v>
       </c>
       <c r="F11" s="1">
-        <v>0.68542999999999998</v>
+        <v>0.68543</v>
       </c>
       <c r="G11" s="1">
         <v>0.15</v>
       </c>
       <c r="H11" s="1">
-        <v>1658</v>
+        <v>1658.0</v>
       </c>
       <c r="I11" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="J11" s="1">
-        <v>0.28999999999999898</v>
+        <v>0.289999999999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0.75700000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.757</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="1" t="s">
         <v>212</v>
       </c>
@@ -4389,22 +4164,22 @@
         <v>222</v>
       </c>
       <c r="C12" s="1">
-        <v>0.56999999999999995</v>
+        <v>0.57</v>
       </c>
       <c r="D12" s="1">
-        <v>4.8000000000000001E-2</v>
+        <v>0.048</v>
       </c>
       <c r="E12" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F12" s="1">
-        <v>0.76339000000000001</v>
+        <v>0.76339</v>
       </c>
       <c r="G12" s="1">
         <v>0.12</v>
       </c>
       <c r="H12" s="1">
-        <v>1644</v>
+        <v>1644.0</v>
       </c>
       <c r="I12" s="1">
         <v>0.18</v>
@@ -4413,10 +4188,10 @@
         <v>0.71</v>
       </c>
       <c r="K12" s="1">
-        <v>0.74309999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.7431</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="1" t="s">
         <v>212</v>
       </c>
@@ -4424,22 +4199,22 @@
         <v>223</v>
       </c>
       <c r="C13" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="D13" s="1">
-        <v>3.5999999999999997E-2</v>
+        <v>0.036</v>
       </c>
       <c r="E13" s="1">
         <v>0.53</v>
       </c>
       <c r="F13" s="1">
-        <v>0.84135000000000004</v>
+        <v>0.84135</v>
       </c>
       <c r="G13" s="1">
         <v>0.105</v>
       </c>
       <c r="H13" s="1">
-        <v>1630</v>
+        <v>1630.0</v>
       </c>
       <c r="I13" s="1">
         <v>0.2</v>
@@ -4448,10 +4223,10 @@
         <v>0.64</v>
       </c>
       <c r="K13" s="1">
-        <v>0.72919999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.7292</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="1" t="s">
         <v>212</v>
       </c>
@@ -4462,31 +4237,31 @@
         <v>0.53</v>
       </c>
       <c r="D14" s="1">
-        <v>2.4E-2</v>
+        <v>0.024</v>
       </c>
       <c r="E14" s="1">
         <v>0.51</v>
       </c>
       <c r="F14" s="1">
-        <v>0.91930999999999996</v>
+        <v>0.91931</v>
       </c>
       <c r="G14" s="1">
         <v>0.09</v>
       </c>
       <c r="H14" s="1">
-        <v>1616</v>
+        <v>1616.0</v>
       </c>
       <c r="I14" s="1">
         <v>0.22</v>
       </c>
       <c r="J14" s="1">
-        <v>0.56999999999999995</v>
+        <v>0.57</v>
       </c>
       <c r="K14" s="1">
-        <v>0.71530000000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.7153</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="1" t="s">
         <v>212</v>
       </c>
@@ -4497,19 +4272,19 @@
         <v>0.51</v>
       </c>
       <c r="D15" s="1">
-        <v>4.8000000000000001E-2</v>
+        <v>0.048</v>
       </c>
       <c r="E15" s="1">
         <v>0.49</v>
       </c>
       <c r="F15" s="1">
-        <v>0.68542999999999998</v>
+        <v>0.68543</v>
       </c>
       <c r="G15" s="1">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="H15" s="1">
-        <v>1602</v>
+        <v>1602.0</v>
       </c>
       <c r="I15" s="1">
         <v>0.24</v>
@@ -4518,10 +4293,10 @@
         <v>0.499999999999999</v>
       </c>
       <c r="K15" s="1">
-        <v>0.70140000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.7014</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="1" t="s">
         <v>212</v>
       </c>
@@ -4532,31 +4307,110 @@
         <v>0.49</v>
       </c>
       <c r="D16" s="1">
-        <v>8.4000000000000005E-2</v>
+        <v>0.084</v>
       </c>
       <c r="E16" s="1">
         <v>0.47</v>
       </c>
       <c r="F16" s="1">
-        <v>0.84135000000000004</v>
+        <v>0.84135</v>
       </c>
       <c r="G16" s="1">
         <v>0.06</v>
       </c>
       <c r="H16" s="1">
-        <v>1588</v>
+        <v>1588.0</v>
       </c>
       <c r="I16" s="1">
         <v>0.24</v>
       </c>
       <c r="J16" s="1">
-        <v>0.42999999999999899</v>
+        <v>0.429999999999999</v>
       </c>
       <c r="K16" s="1">
         <v>0.6875</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>